--- a/Relatorios/Relatorio_Almoxarifado.xlsx
+++ b/Relatorios/Relatorio_Almoxarifado.xlsx
@@ -485,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,6 +598,29 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BOBINA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>VICTOR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14:36 17/03/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
